--- a/Output_testing/R1_201907/Country/HKD/MN/QATAR_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/QATAR_201907_HKD_MN.xlsx
@@ -810,136 +810,445 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>80.86929600000001</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>9.553663836990616</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>358.400131</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>25.29166859891345</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1079.916071</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>43.76715415443501</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>660.044036</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>39.36861508903316</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-17.45051746955561</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>361.471845</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>42.70323428643149</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>373.225799</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>26.33788998495841</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>809.432128</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>32.80490185771888</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>518.680504</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>30.93692542077862</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>17.94897867967631</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.561185</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.06629676657951343</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>173.063107</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>12.21275990254116</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>14.878292</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.602991766680262</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>152.538281</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.098212457799981</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30.560786</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.610362529163221</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>65.245468</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.604258234037901</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>110.27427</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.469227844612555</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>53.804037</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.209165309220517</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-0.9246534938628814</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>108.612229</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>12.83113339396751</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>77.296086</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>5.454649209112911</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>44.766559</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.814312187152005</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>47.558733</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.836661421782923</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>38.98916936912724</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>69.697193</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>8.233824025175828</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>72.496514</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.115951831681918</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>76.58096399999999</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.103695691443449</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>39.094</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.331778721337711</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-7.475030162799357</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.316654</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.1555456808431848</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.701341</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.1200606501612691</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>14.954094</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.6060638922910443</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>27.023928</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.611854000034849</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>220.2507974294543</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>7.278832</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.8599000794310128</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>14.43366</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.018558069080039</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>19.337259</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.783706084486297</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>14.315564</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.8538580733398518</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>15.0219866933281</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>15.115724</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.78572774701453</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>17.12442</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.208440282597457</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>25.459508</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.031830381318653</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>14.314358</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8537861409426059</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-27.22252744543021</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>8.964556</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6326129927904551</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>12.956492</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.7727956297330097</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>170.766314</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>20.17383654035994</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>255.116873</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>18.00315024412502</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>271.385374</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.99878575574694</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>136.244248</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>8.126347735996777</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-14.03434686416647</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1280,547 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>45.424351</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>81.84797806929348</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>14.547063</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>44.50712087903616</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>31.700829</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>72.97392336985411</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>19.165402</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>92.9501516828329</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-22.15843215058602</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.5744197494560207</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1.082160548088425</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>0.7485777765776912</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.6812240000000001</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>3.303863604321274</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>109.4836281335334</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.351582236412794</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>9.368980000000001</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>16.88151955262166</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>17.454197</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>53.40157361836614</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>10.924991</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>25.1488519764056</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.7523445232169478</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-95.79059851672638</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.2098923764064119</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.4497645401130054</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>51.75173045769175</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.06087918867629433</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.1521961325201969</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.07715006575192908</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.1847275798048704</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>54.53180785459266</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.3617651234881557</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.4062071790620465</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.4473806050650727</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.2670085163866256</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.05216903394041346</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.1000798525624607</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.2212692825239772</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.4153092696087867</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1852,445 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>35.444945</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>4.481167243106398</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>343.853068</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>24.83799853456177</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1048.215242</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>43.24372361875214</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>640.878634</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>38.70144830068075</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-17.30094222878338</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>361.471845</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>45.69948665794892</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>373.225799</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>26.95971829637026</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>809.432128</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>33.3928165026343</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>518.680504</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>31.32213440295005</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>17.94897867967631</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>0.561185</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.07094844806001713</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>173.063107</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>12.5010988648579</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>14.878292</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.6137983129681404</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>152.538281</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.211498219483804</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>30.560786</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.863681919855839</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>65.245468</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.712963150210418</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>110.27427</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.549323328900469</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>53.804037</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.249124008592576</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-0.9246534938628814</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>108.612229</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>13.7314238404255</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>77.296086</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.583431556863005</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>44.766559</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.846827471297695</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>47.558733</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.871981914824421</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>38.98916936912724</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>69.697193</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>8.811546419611162</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>72.496514</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.236737653574861</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>76.58096399999999</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.159318724802141</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>39.094</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.360812702435658</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-7.475030162799357</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.316654</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.166459470463419</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.701341</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.1228952398493355</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>14.954094</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.6169254958275446</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>27.023928</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.631923888374345</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>220.2507974294543</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>7.278832</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.9202345645189921</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>14.43366</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.042605866551009</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>19.337259</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.7977513112142167</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>14.315564</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.8644898279462481</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>15.0219866933281</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>15.115724</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.911022495440103</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>17.12442</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.236971132289622</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>25.459508</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.050322379705874</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>14.314358</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.8644169998877447</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-27.22252744543021</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>8.964556</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.6475487628657626</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>12.956492</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.7824180409424973</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>160.692225</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>20.3156962125878</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>236.979137</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>17.11803094200606</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>259.644892</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.71155188246037</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>134.790639</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>8.139751693881907</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-12.62276681293452</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2322,481 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>467.113614</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>68.33088995960479</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>505.896268</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>44.6160979924832</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>3858.731949</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>62.33961455101034</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1285.64559</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>42.31744118862049</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-28.03911010455412</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>IRON AND STEEL BARS, RODS, ANGLES, SHAPES AND SECTIONS (INCLUDING SHEET PILING)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>192.218569</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>16.95217587665401</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1668.825943</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>26.96066153709044</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1172.055634</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>38.57859097979428</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>25.49487298222843</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>9.546309000000001</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.396464950386535</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>9.691018</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.854672066359103</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>360.018282</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>5.816263277114444</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>382.673174</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>12.59581152159339</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>16.18908758966524</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF ETHYLENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>112.09044</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>16.39695202966977</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>173.279933</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>15.28193615940832</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>144.49095</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.334318695405527</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>58.86353</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.937512163775709</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-26.8893465075815</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>25.128708</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.675908664856513</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>19.390916</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.710127279333894</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>68.736031</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.110462642894063</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>28.791023</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.947665851335219</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-25.82855499682921</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>0.8563770000000001</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1252735968233554</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>16.151785</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.26093962071445</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>15.862256</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.5221112961612091</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>95.64498962896013</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>5.901127</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.09533545928006103</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>13.854744</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.4560333881776801</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>188.933828029998</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>137.373284</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>12.1152502759582</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>11.481595</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.377920419860079</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>INORGANIC CHEMICAL ELEMENTS, OXIDES AND HALOGEN SALTS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>5.0535</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.08164164971738253</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>9.501340000000001</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.3127396848637636</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.51345</v>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>7.67029</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.2524700807900441</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>68.86910399999999</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>10.07439523490441</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>95.29197600000001</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>8.404007714706758</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>61.712275</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.9969905884659706</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>51.699428</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.701703425028136</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>67.21657269767563</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
